--- a/Wine_Quality/outputs/train_60_test_40/depth_7/wq_train_60_test_40_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_7/wq_train_60_test_40_depth_7_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.6225352112676056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.4324853228962818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.5103926096997691</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8116710875331565</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9226130653266331</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="D3" t="n">
-        <v>0.863593603010348</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="E3" t="n">
-        <v>1990</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5629139072847682</v>
+        <v>0.8282873926796204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3326810176125244</v>
+        <v>0.921105527638191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4182041820418204</v>
+        <v>0.8722341184867951</v>
       </c>
       <c r="E4" t="n">
-        <v>511</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7749134282416313</v>
+        <v>0.7929973066564063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7749134282416313</v>
+        <v>0.7929973066564063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7749134282416313</v>
+        <v>0.7929973066564063</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7749134282416313</v>
+        <v>0.7929973066564063</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5343854744631178</v>
+        <v>0.5588763518533764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4456422453334607</v>
+        <v>0.4750064739876814</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4673661789772892</v>
+        <v>0.4970512866565033</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.74077509458003</v>
+        <v>0.7651159817807831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7749134282416313</v>
+        <v>0.7929973066564063</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7479965681793665</v>
+        <v>0.7722940278030138</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>

--- a/Wine_Quality/outputs/train_60_test_40/depth_7/wq_train_60_test_40_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_60_test_40/depth_7/wq_train_60_test_40_depth_7_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6225352112676056</v>
+        <v>0.62</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4324853228962818</v>
+        <v>0.43</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5103926096997691</v>
+        <v>0.51</v>
       </c>
       <c r="E2" t="n">
         <v>511</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1085271317829457</v>
+        <v>0.11</v>
       </c>
       <c r="E3" t="n">
         <v>98</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8282873926796204</v>
+        <v>0.83</v>
       </c>
       <c r="C4" t="n">
-        <v>0.921105527638191</v>
+        <v>0.92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8722341184867951</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>1990</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7929973066564063</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7929973066564063</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7929973066564063</v>
+        <v>0.79</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7929973066564063</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5588763518533764</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4750064739876814</v>
+        <v>0.48</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4970512866565033</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
         <v>2599</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7651159817807831</v>
+        <v>0.77</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7929973066564063</v>
+        <v>0.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7722940278030138</v>
+        <v>0.77</v>
       </c>
       <c r="E7" t="n">
         <v>2599</v>
